--- a/Arduino/Nom bluetooth + adresse mac.xlsx
+++ b/Arduino/Nom bluetooth + adresse mac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bluetooth-arduino-b4a-appinventor-master\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="149">
   <si>
     <t>000E0E160CC6</t>
   </si>
@@ -333,6 +333,144 @@
   </si>
   <si>
     <t>Nom</t>
+  </si>
+  <si>
+    <t>HC05</t>
+  </si>
+  <si>
+    <t>HC05-01</t>
+  </si>
+  <si>
+    <t>HC05-02</t>
+  </si>
+  <si>
+    <t>HC05-03</t>
+  </si>
+  <si>
+    <t>HC05.01</t>
+  </si>
+  <si>
+    <t>HC05.02</t>
+  </si>
+  <si>
+    <t>HC05.03</t>
+  </si>
+  <si>
+    <t>HC.01</t>
+  </si>
+  <si>
+    <t>HC.02</t>
+  </si>
+  <si>
+    <t>HC.03</t>
+  </si>
+  <si>
+    <t>HC.04</t>
+  </si>
+  <si>
+    <t>HC.05</t>
+  </si>
+  <si>
+    <t>HC.06</t>
+  </si>
+  <si>
+    <t>HC.07</t>
+  </si>
+  <si>
+    <t>HC.08</t>
+  </si>
+  <si>
+    <t>HC.09</t>
+  </si>
+  <si>
+    <t>HC.10</t>
+  </si>
+  <si>
+    <t>zs-040</t>
+  </si>
+  <si>
+    <t>vma302</t>
+  </si>
+  <si>
+    <t>CZ-HC-05 gomcu</t>
+  </si>
+  <si>
+    <t>ZS-040 (www.hc01.com)</t>
+  </si>
+  <si>
+    <t>98d336b740</t>
+  </si>
+  <si>
+    <t>21:13:3b89e</t>
+  </si>
+  <si>
+    <t>HC02</t>
+  </si>
+  <si>
+    <t>HC03</t>
+  </si>
+  <si>
+    <t>HC04</t>
+  </si>
+  <si>
+    <t>HC06</t>
+  </si>
+  <si>
+    <t>HC07</t>
+  </si>
+  <si>
+    <t>HC08</t>
+  </si>
+  <si>
+    <t>HC09</t>
+  </si>
+  <si>
+    <t>HC10</t>
+  </si>
+  <si>
+    <t>HC01</t>
+  </si>
+  <si>
+    <t>21:13:3b653</t>
+  </si>
+  <si>
+    <t>21:13:3b293</t>
+  </si>
+  <si>
+    <t>21:13:3ac82</t>
+  </si>
+  <si>
+    <t>21:13:3bdb0</t>
+  </si>
+  <si>
+    <t>21:13:3aad2</t>
+  </si>
+  <si>
+    <t>21:13:3afb6</t>
+  </si>
+  <si>
+    <t>21:13:3ab20</t>
+  </si>
+  <si>
+    <t>21:13:3af96</t>
+  </si>
+  <si>
+    <t>21:13:3bc2e</t>
+  </si>
+  <si>
+    <t>98d3:32:30bb1d</t>
+  </si>
+  <si>
+    <t>hc05-1735 ?</t>
+  </si>
+  <si>
+    <t>velleman vma302 (HC05)</t>
+  </si>
+  <si>
+    <t>98d3:32:20b326</t>
+  </si>
+  <si>
+    <t>98d3:32:30ba64</t>
   </si>
 </sst>
 </file>
@@ -370,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -597,11 +735,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -643,6 +794,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +1091,7 @@
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1788,6 +1945,313 @@
       </c>
       <c r="G40" s="19"/>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="4">
+        <v>38400</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
   </sheetData>
   <sortState ref="B2:E25">
     <sortCondition ref="B2"/>

--- a/Arduino/Nom bluetooth + adresse mac.xlsx
+++ b/Arduino/Nom bluetooth + adresse mac.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="151">
   <si>
     <t>000E0E160CC6</t>
   </si>
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>98d3:32:30ba64</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>HC01.COM HC-05</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1089,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,10 +2231,16 @@
       <c r="B54" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="4">
+        <v>1234</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">

--- a/Arduino/Nom bluetooth + adresse mac.xlsx
+++ b/Arduino/Nom bluetooth + adresse mac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bluetooth-arduino-b4a-appinventor-master\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Telechargements\bluetooth-arduino-b4a-appinventor-master\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="153">
   <si>
     <t>000E0E160CC6</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>HC01.COM HC-05</t>
+  </si>
+  <si>
+    <t>blue3.01.5</t>
+  </si>
+  <si>
+    <t>000EEACF4908</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,17 +1220,17 @@
       <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1234</v>
       </c>
       <c r="F6" s="1">
         <v>9600</v>
@@ -1236,123 +1242,123 @@
         <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1234</v>
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>9600</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1234</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9600</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="22">
         <v>1234</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="21">
         <v>9600</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E10" s="26">
         <v>1234</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F10" s="25">
         <v>9600</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>115200</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1234</v>
-      </c>
-      <c r="F11" s="1">
-        <v>115200</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1234</v>
       </c>
       <c r="F12" s="1">
         <v>115200</v>
@@ -1367,13 +1373,13 @@
         <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1234</v>
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="1">
         <v>115200</v>
@@ -1385,16 +1391,16 @@
         <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1234</v>
       </c>
       <c r="F14" s="1">
         <v>115200</v>
@@ -1409,13 +1415,13 @@
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1234</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F15" s="1">
         <v>115200</v>
@@ -1427,16 +1433,16 @@
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1234</v>
       </c>
       <c r="F16" s="1">
         <v>115200</v>
@@ -1451,13 +1457,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1">
         <v>115200</v>
@@ -1469,16 +1475,16 @@
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1234</v>
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F18" s="1">
         <v>115200</v>
@@ -1493,13 +1499,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1234</v>
       </c>
       <c r="F19" s="1">
         <v>115200</v>
@@ -1511,16 +1517,16 @@
         <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1234</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>115200</v>
@@ -1534,14 +1540,14 @@
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1234</v>
       </c>
       <c r="F21" s="1">
         <v>115200</v>
@@ -1553,16 +1559,16 @@
         <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1234</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="1">
         <v>115200</v>
@@ -1576,14 +1582,14 @@
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1234</v>
       </c>
       <c r="F23" s="1">
         <v>115200</v>
@@ -1595,16 +1601,16 @@
         <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1234</v>
+        <v>56</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F24" s="1">
         <v>115200</v>
@@ -1619,13 +1625,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1234</v>
       </c>
       <c r="F25" s="1">
         <v>115200</v>
@@ -1637,16 +1643,16 @@
         <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>115200</v>
@@ -1661,13 +1667,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F27" s="1">
         <v>115200</v>
@@ -1679,143 +1685,143 @@
         <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1">
         <v>115200</v>
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1">
+        <v>115200</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>115200</v>
       </c>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E31" s="32">
         <v>1234</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F31" s="31">
         <v>57600</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G31" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>57600</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G32" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C33" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D33" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>9600</v>
       </c>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1">
-        <v>9600</v>
-      </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -1830,13 +1836,13 @@
         <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -1851,13 +1857,13 @@
         <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -1872,13 +1878,13 @@
         <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -1893,13 +1899,13 @@
         <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -1914,13 +1920,13 @@
         <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -1930,60 +1936,60 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9600</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D41" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>9600</v>
       </c>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B42" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C42" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D42" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="4">
-        <v>38400</v>
-      </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>33</v>
@@ -1991,20 +1997,20 @@
       <c r="F42" s="4">
         <v>38400</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>122</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>33</v>
@@ -2016,16 +2022,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>134</v>
+        <v>109</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>33</v>
@@ -2040,13 +2046,13 @@
         <v>145</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>33</v>
@@ -2061,13 +2067,13 @@
         <v>145</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>33</v>
@@ -2082,13 +2088,13 @@
         <v>145</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>33</v>
@@ -2103,13 +2109,13 @@
         <v>145</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>33</v>
@@ -2124,13 +2130,13 @@
         <v>145</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>33</v>
@@ -2145,13 +2151,13 @@
         <v>145</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>33</v>
@@ -2166,13 +2172,13 @@
         <v>145</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>33</v>
@@ -2187,13 +2193,13 @@
         <v>145</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>33</v>
@@ -2208,13 +2214,13 @@
         <v>145</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>33</v>
@@ -2225,44 +2231,65 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>123</v>
+      <c r="A54" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4">
-        <v>1234</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="4">
+        <v>38400</v>
       </c>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4">
+        <v>1234</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B56" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D56" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>38400</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G56" s="4"/>
     </row>
   </sheetData>
   <sortState ref="B2:E25">
